--- a/test_case_data/bmc/bmc_ele_License_2021513.xlsx
+++ b/test_case_data/bmc/bmc_ele_License_2021513.xlsx
@@ -282,7 +282,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5601" uniqueCount="2024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5601" uniqueCount="2034">
   <si>
     <t>caseNum</t>
   </si>
@@ -10416,12 +10416,52 @@
     <t>vehicleList004</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
+  <si>
+    <t>caseNum</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>otherExpectData</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>function</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>interface</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>priority</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>yapiAddress</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>creator</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoCreator</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>expectResult</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>frontCondition</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10649,6 +10689,14 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -10699,7 +10747,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10911,6 +10959,12 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -11604,13 +11658,13 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
       <c r="H10" s="40"/>
@@ -11625,11 +11679,11 @@
       <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="72"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
+      <c r="A11" s="74"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
       <c r="H11" s="40"/>
@@ -15016,7 +15070,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
+      <selection pane="bottomLeft" activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18477,7 +18531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
@@ -19851,8 +19905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19918,14 +19972,14 @@
       <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
+      <c r="O1" s="73" t="s">
+        <v>2029</v>
+      </c>
+      <c r="P1" s="73" t="s">
+        <v>2030</v>
+      </c>
+      <c r="Q1" s="73" t="s">
+        <v>2031</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>62</v>
@@ -21289,8 +21343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21317,16 +21371,16 @@
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>3</v>
+        <v>2024</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>2027</v>
+      </c>
+      <c r="D1" s="72" t="s">
+        <v>2028</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>1753</v>
@@ -21338,7 +21392,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>7</v>
+        <v>2033</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>8</v>
@@ -21350,13 +21404,13 @@
         <v>1754</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>11</v>
+        <v>2032</v>
       </c>
       <c r="M1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="17" t="s">
-        <v>13</v>
+      <c r="N1" s="72" t="s">
+        <v>2025</v>
       </c>
       <c r="O1" s="17" t="s">
         <v>14</v>
@@ -27627,7 +27681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -30509,7 +30563,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="11" master=""/>
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="12" master=""/>
+  <rangeList sheetStid="9" master=""/>
+  <rangeList sheetStid="8" master=""/>
+  <rangeList sheetStid="10" master=""/>
+  <rangeList sheetStid="13" master=""/>
+  <rangeList sheetStid="14" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30535,19 +30601,7 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="11" master=""/>
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="12" master=""/>
-  <rangeList sheetStid="9" master=""/>
-  <rangeList sheetStid="8" master=""/>
-  <rangeList sheetStid="10" master=""/>
-  <rangeList sheetStid="13" master=""/>
-  <rangeList sheetStid="14" master=""/>
-</allowEditUser>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30568,7 +30622,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -30586,7 +30640,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
